--- a/OPE_only_CHEMSUM_hydro.xlsx
+++ b/OPE_only_CHEMSUM_hydro.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Tim Rodgers\Documents\GitHub\BioretentionBlues\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11EF17EA-7D9A-44CF-83C5-7B3B0CB3B2F4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45B24B3E-4E2C-4FF7-8533-E9AE2038A2F1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OPECHEMSUMM" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="46">
   <si>
     <t>Compound</t>
   </si>
@@ -161,6 +161,12 @@
   </si>
   <si>
     <t>Concentration (g/m³)</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Root Concentrations (ug/g dw</t>
   </si>
 </sst>
 </file>
@@ -1012,7 +1018,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Y17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
@@ -1597,15 +1603,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F7762D7-FB5D-4BCF-A6D1-2F4FE183A364}">
-  <dimension ref="B1:E9"/>
+  <dimension ref="B1:J22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>40</v>
       </c>
@@ -1619,7 +1630,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>21</v>
       </c>
@@ -1630,7 +1641,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>34</v>
       </c>
@@ -1641,7 +1652,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>35</v>
       </c>
@@ -1652,7 +1663,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>33</v>
       </c>
@@ -1663,7 +1674,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>36</v>
       </c>
@@ -1674,7 +1685,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>37</v>
       </c>
@@ -1685,7 +1696,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>38</v>
       </c>
@@ -1696,7 +1707,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>18</v>
       </c>
@@ -1705,6 +1716,85 @@
       </c>
       <c r="D9">
         <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" t="s">
+        <v>36</v>
+      </c>
+      <c r="H13" t="s">
+        <v>37</v>
+      </c>
+      <c r="I13" t="s">
+        <v>38</v>
+      </c>
+      <c r="J13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>240</v>
       </c>
     </row>
   </sheetData>

--- a/OPE_only_CHEMSUM_hydro.xlsx
+++ b/OPE_only_CHEMSUM_hydro.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Tim Rodgers\Documents\GitHub\BioretentionBlues\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45B24B3E-4E2C-4FF7-8533-E9AE2038A2F1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70F4EA2B-F703-4560-B715-5549F8D30314}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OPECHEMSUMM" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -29,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="47">
   <si>
     <t>Compound</t>
   </si>
@@ -167,6 +170,9 @@
   </si>
   <si>
     <t>Root Concentrations (ug/g dw</t>
+  </si>
+  <si>
+    <t>VegHL</t>
   </si>
 </sst>
 </file>
@@ -1016,10 +1022,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Y17"/>
+  <dimension ref="A1:Z17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1030,16 +1036,17 @@
     <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="10.5703125" customWidth="1"/>
-    <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="16" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16" bestFit="1" customWidth="1"/>
-    <col min="18" max="24" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="50" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="10.5703125" customWidth="1"/>
+    <col min="12" max="12" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="17" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16" bestFit="1" customWidth="1"/>
+    <col min="19" max="25" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="50" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1062,61 +1069,64 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" t="s">
         <v>31</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>28</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>30</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>29</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>32</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>7</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>8</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>27</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>9</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>39</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>10</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>11</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>12</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>13</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>14</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>15</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>16</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -1138,16 +1148,14 @@
       <c r="G2" s="1">
         <v>1488</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2" s="1"/>
+      <c r="I2" s="1">
         <v>6.3</v>
       </c>
-      <c r="I2" s="1">
+      <c r="J2" s="1">
         <v>999</v>
       </c>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1">
-        <v>0</v>
-      </c>
+      <c r="K2" s="1"/>
       <c r="L2" s="1">
         <v>0</v>
       </c>
@@ -1158,40 +1166,43 @@
         <v>0</v>
       </c>
       <c r="O2" s="1">
+        <v>0</v>
+      </c>
+      <c r="P2" s="1">
         <v>1.9060773480662983E-14</v>
       </c>
-      <c r="P2" s="1">
-        <v>0</v>
-      </c>
       <c r="Q2" s="1">
+        <v>0</v>
+      </c>
+      <c r="R2" s="1">
         <v>71</v>
-      </c>
-      <c r="R2" s="1">
-        <v>2.616143551903963E-10</v>
       </c>
       <c r="S2" s="1">
         <v>2.616143551903963E-10</v>
       </c>
       <c r="T2" s="1">
+        <v>2.616143551903963E-10</v>
+      </c>
+      <c r="U2" s="1">
         <v>12.83</v>
       </c>
-      <c r="U2" s="1">
+      <c r="V2" s="1">
         <v>1.62</v>
       </c>
-      <c r="V2" s="1">
-        <v>0</v>
-      </c>
       <c r="W2" s="1">
+        <v>0</v>
+      </c>
+      <c r="X2" s="1">
         <v>1.44</v>
       </c>
-      <c r="X2" s="1">
+      <c r="Y2" s="1">
         <v>2.8908</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>33</v>
       </c>
@@ -1213,16 +1224,14 @@
       <c r="G3" s="1">
         <v>816</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="1"/>
+      <c r="I3" s="1">
         <v>3</v>
       </c>
-      <c r="I3" s="1">
+      <c r="J3" s="1">
         <v>999</v>
       </c>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1">
-        <v>0</v>
-      </c>
+      <c r="K3" s="1"/>
       <c r="L3" s="1">
         <v>0</v>
       </c>
@@ -1233,40 +1242,43 @@
         <v>0</v>
       </c>
       <c r="O3" s="1">
+        <v>0</v>
+      </c>
+      <c r="P3" s="1">
         <v>1.9723618090452261E-13</v>
       </c>
-      <c r="P3" s="1">
-        <v>0</v>
-      </c>
       <c r="Q3" s="1">
+        <v>0</v>
+      </c>
+      <c r="R3" s="1">
         <v>71.400000000000006</v>
-      </c>
-      <c r="R3" s="1">
-        <v>2.616143551903963E-10</v>
       </c>
       <c r="S3" s="1">
         <v>2.616143551903963E-10</v>
       </c>
       <c r="T3" s="1">
+        <v>2.616143551903963E-10</v>
+      </c>
+      <c r="U3" s="1">
         <v>12.664999999999999</v>
       </c>
-      <c r="U3" s="1">
+      <c r="V3" s="1">
         <v>1.21</v>
       </c>
-      <c r="V3" s="1">
-        <v>0</v>
-      </c>
       <c r="W3" s="1">
+        <v>0</v>
+      </c>
+      <c r="X3" s="1">
         <v>1.9</v>
       </c>
-      <c r="X3" s="1">
+      <c r="Y3" s="1">
         <v>3.2603</v>
       </c>
-      <c r="Y3" s="1" t="s">
+      <c r="Z3" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -1288,16 +1300,14 @@
       <c r="G4" s="1">
         <v>1464</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="1"/>
+      <c r="I4" s="1">
         <v>1.6000000000000003</v>
       </c>
-      <c r="I4" s="1">
+      <c r="J4" s="1">
         <v>999</v>
       </c>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1">
-        <v>0</v>
-      </c>
+      <c r="K4" s="1"/>
       <c r="L4" s="1">
         <v>0</v>
       </c>
@@ -1308,40 +1318,43 @@
         <v>0</v>
       </c>
       <c r="O4" s="1">
+        <v>0</v>
+      </c>
+      <c r="P4" s="1">
         <v>1.7543859649122809E-13</v>
       </c>
-      <c r="P4" s="1">
-        <v>0</v>
-      </c>
       <c r="Q4" s="1">
+        <v>0</v>
+      </c>
+      <c r="R4" s="1">
         <v>76.2</v>
-      </c>
-      <c r="R4" s="1">
-        <v>2.616143551903963E-10</v>
       </c>
       <c r="S4" s="1">
         <v>2.616143551903963E-10</v>
       </c>
       <c r="T4" s="1">
+        <v>2.616143551903963E-10</v>
+      </c>
+      <c r="U4" s="1">
         <v>7.18</v>
       </c>
-      <c r="U4" s="1">
+      <c r="V4" s="1">
         <v>2.09</v>
       </c>
-      <c r="V4" s="1">
+      <c r="W4" s="1">
         <v>0.03</v>
       </c>
-      <c r="W4" s="1">
+      <c r="X4" s="1">
         <v>0.98</v>
       </c>
-      <c r="X4" s="1">
+      <c r="Y4" s="1">
         <v>1.7605999999999999</v>
       </c>
-      <c r="Y4" s="1" t="s">
+      <c r="Z4" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>34</v>
       </c>
@@ -1363,16 +1376,14 @@
       <c r="G5" s="1">
         <v>1464</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="1"/>
+      <c r="I5" s="1">
         <v>2.9000000000000004</v>
       </c>
-      <c r="I5" s="1">
+      <c r="J5" s="1">
         <v>999</v>
       </c>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1">
-        <v>0</v>
-      </c>
+      <c r="K5" s="1"/>
       <c r="L5" s="1">
         <v>0</v>
       </c>
@@ -1383,40 +1394,43 @@
         <v>0</v>
       </c>
       <c r="O5" s="1">
+        <v>0</v>
+      </c>
+      <c r="P5" s="1">
         <v>2.4085365853658537E-13</v>
       </c>
-      <c r="P5" s="1">
-        <v>0</v>
-      </c>
       <c r="Q5" s="1">
+        <v>0</v>
+      </c>
+      <c r="R5" s="1">
         <v>72.5</v>
-      </c>
-      <c r="R5" s="1">
-        <v>2.616143551903963E-10</v>
       </c>
       <c r="S5" s="1">
         <v>2.616143551903963E-10</v>
       </c>
       <c r="T5" s="1">
+        <v>2.616143551903963E-10</v>
+      </c>
+      <c r="U5" s="1">
         <v>8.7040000000000006</v>
       </c>
-      <c r="U5" s="1">
+      <c r="V5" s="1">
         <v>1.0900000000000001</v>
       </c>
-      <c r="V5" s="1">
-        <v>0</v>
-      </c>
       <c r="W5" s="1">
+        <v>0</v>
+      </c>
+      <c r="X5" s="1">
         <v>1.32</v>
       </c>
-      <c r="X5" s="1">
+      <c r="Y5" s="1">
         <v>2.1833</v>
       </c>
-      <c r="Y5" s="1" t="s">
+      <c r="Z5" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>35</v>
       </c>
@@ -1438,16 +1452,14 @@
       <c r="G6" s="1">
         <v>1464</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="1"/>
+      <c r="I6" s="1">
         <v>3.7000000000000006</v>
       </c>
-      <c r="I6" s="1">
+      <c r="J6" s="1">
         <v>999</v>
       </c>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1">
-        <v>0</v>
-      </c>
+      <c r="K6" s="1"/>
       <c r="L6" s="1">
         <v>0</v>
       </c>
@@ -1458,40 +1470,43 @@
         <v>0</v>
       </c>
       <c r="O6" s="1">
+        <v>0</v>
+      </c>
+      <c r="P6" s="1">
         <v>1.8329466357308583E-13</v>
       </c>
-      <c r="P6" s="1">
-        <v>0</v>
-      </c>
       <c r="Q6" s="1">
+        <v>0</v>
+      </c>
+      <c r="R6" s="1">
         <v>73.8</v>
-      </c>
-      <c r="R6" s="1">
-        <v>2.616143551903963E-10</v>
       </c>
       <c r="S6" s="1">
         <v>2.616143551903963E-10</v>
       </c>
       <c r="T6" s="1">
+        <v>2.616143551903963E-10</v>
+      </c>
+      <c r="U6" s="1">
         <v>9.93</v>
       </c>
-      <c r="U6" s="1">
+      <c r="V6" s="1">
         <v>2.1</v>
       </c>
-      <c r="V6" s="1">
+      <c r="W6" s="1">
         <v>0.03</v>
       </c>
-      <c r="W6" s="1">
+      <c r="X6" s="1">
         <v>1.24</v>
       </c>
-      <c r="X6" s="1">
+      <c r="Y6" s="1">
         <v>2.5510000000000002</v>
       </c>
-      <c r="Y6" s="1" t="s">
+      <c r="Z6" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>25</v>
       </c>
@@ -1513,16 +1528,14 @@
       <c r="G7" s="1">
         <v>10</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="1"/>
+      <c r="I7" s="1">
         <v>4.7</v>
       </c>
-      <c r="I7" s="1">
+      <c r="J7" s="1">
         <v>999</v>
       </c>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1">
-        <v>0</v>
-      </c>
+      <c r="K7" s="1"/>
       <c r="L7" s="1">
         <v>0</v>
       </c>
@@ -1533,68 +1546,71 @@
         <v>0</v>
       </c>
       <c r="O7" s="1">
+        <v>0</v>
+      </c>
+      <c r="P7" s="1">
         <v>1.803680981595092E-12</v>
       </c>
-      <c r="P7" s="1">
-        <v>0</v>
-      </c>
       <c r="Q7" s="1">
+        <v>0</v>
+      </c>
+      <c r="R7" s="1">
         <v>69.599999999999994</v>
-      </c>
-      <c r="R7" s="1">
-        <v>2.616143551903963E-10</v>
       </c>
       <c r="S7" s="1">
         <v>2.616143551903963E-10</v>
       </c>
       <c r="T7" s="1">
+        <v>2.616143551903963E-10</v>
+      </c>
+      <c r="U7" s="1">
         <v>11.259</v>
       </c>
-      <c r="U7" s="1">
+      <c r="V7" s="1">
         <v>1.66</v>
       </c>
-      <c r="V7" s="1">
-        <v>0</v>
-      </c>
       <c r="W7" s="1">
+        <v>0</v>
+      </c>
+      <c r="X7" s="1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="X7" s="1">
+      <c r="Y7" s="1">
         <v>2.3714</v>
       </c>
-      <c r="Y7" s="1" t="s">
+      <c r="Z7" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="Q8" s="1"/>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="Q9" s="1"/>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="H10" s="3"/>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="H11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="H12" s="3"/>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="H13" s="3"/>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="H14" s="3"/>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="H15" s="3"/>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="H16" s="3"/>
-    </row>
-    <row r="17" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H17" s="3"/>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="R8" s="1"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="R9" s="1"/>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="I11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="I12" s="3"/>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="I13" s="3"/>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="I14" s="3"/>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="I15" s="3"/>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="I16" s="3"/>
+    </row>
+    <row r="17" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I17" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1605,7 +1621,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F7762D7-FB5D-4BCF-A6D1-2F4FE183A364}">
   <dimension ref="B1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
